--- a/Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_1.1_KS_Holdout_seed_42/metrics/Trial_215__Reeval_Sobol_Modell_1.1.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_1.1_KS_Holdout_seed_42/metrics/Trial_215__Reeval_Sobol_Modell_1.1.xlsx
@@ -6166,7 +6166,7 @@
                   <c:v>58.62934875488281</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>48.40971374511719</c:v>
+                  <c:v>48.40971755981445</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>12.18084812164307</c:v>
@@ -6202,7 +6202,7 @@
                   <c:v>9.374897003173828</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>69.27677917480469</c:v>
+                  <c:v>69.27678680419922</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>51.78401184082031</c:v>
@@ -7511,7 +7511,7 @@
         <v>51.4673</v>
       </c>
       <c r="F18">
-        <v>48.40971374511719</v>
+        <v>48.40971755981445</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -7751,7 +7751,7 @@
         <v>51.3308</v>
       </c>
       <c r="F30">
-        <v>69.27677917480469</v>
+        <v>69.27678680419922</v>
       </c>
     </row>
     <row r="31" spans="1:6">
